--- a/www/IndicatorsPerCountry/Cuba_CopperProduction_TerritorialRef_1946_2012_CCode_192.xlsx
+++ b/www/IndicatorsPerCountry/Cuba_CopperProduction_TerritorialRef_1946_2012_CCode_192.xlsx
@@ -174,13 +174,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Cuba_CopperProduction_TerritorialRef_1946_2012_CCode_192.xlsx
+++ b/www/IndicatorsPerCountry/Cuba_CopperProduction_TerritorialRef_1946_2012_CCode_192.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,112 +39,211 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>15.6</t>
-  </si>
-  <si>
-    <t>17.819</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>18.9</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>20.6</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>20.132</t>
-  </si>
-  <si>
-    <t>22.78</t>
-  </si>
-  <si>
-    <t>21.029</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>19.8</t>
-  </si>
-  <si>
-    <t>25.43</t>
-  </si>
-  <si>
-    <t>20.96</t>
-  </si>
-  <si>
-    <t>20.977</t>
-  </si>
-  <si>
-    <t>17.057</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>27.4</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>35.768</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>2.583</t>
+  </si>
+  <si>
+    <t>2.821</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>1.443</t>
+  </si>
+  <si>
+    <t>2.674</t>
+  </si>
+  <si>
+    <t>2.688</t>
+  </si>
+  <si>
+    <t>2.701</t>
+  </si>
+  <si>
+    <t>3.076</t>
+  </si>
+  <si>
+    <t>3.257</t>
+  </si>
+  <si>
+    <t>3.461</t>
+  </si>
+  <si>
+    <t>2.951</t>
+  </si>
+  <si>
+    <t>2.759</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>1.351</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.346</t>
   </si>
   <si>
     <t>Description</t>
@@ -2030,7 +2129,7 @@
         <v>1831.0</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -2047,7 +2146,7 @@
         <v>1832.0</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2064,7 +2163,7 @@
         <v>1833.0</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -2081,7 +2180,7 @@
         <v>1834.0</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -2098,7 +2197,7 @@
         <v>1835.0</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -2115,7 +2214,7 @@
         <v>1836.0</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2132,7 +2231,7 @@
         <v>1837.0</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -2149,7 +2248,7 @@
         <v>1838.0</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2166,7 +2265,7 @@
         <v>1839.0</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2183,7 +2282,7 @@
         <v>1840.0</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -2200,7 +2299,7 @@
         <v>1841.0</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
@@ -2217,7 +2316,7 @@
         <v>1842.0</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -2234,7 +2333,7 @@
         <v>1843.0</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -2251,7 +2350,7 @@
         <v>1844.0</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -2268,7 +2367,7 @@
         <v>1845.0</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -2285,7 +2384,7 @@
         <v>1846.0</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -2302,7 +2401,7 @@
         <v>1847.0</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -2319,7 +2418,7 @@
         <v>1848.0</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
@@ -2336,7 +2435,7 @@
         <v>1849.0</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
@@ -2353,7 +2452,7 @@
         <v>1850.0</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -2370,7 +2469,7 @@
         <v>1851.0</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -2387,7 +2486,7 @@
         <v>1852.0</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -2404,7 +2503,7 @@
         <v>1853.0</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
@@ -2421,7 +2520,7 @@
         <v>1854.0</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -2438,7 +2537,7 @@
         <v>1855.0</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
@@ -2455,7 +2554,7 @@
         <v>1856.0</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -2472,7 +2571,7 @@
         <v>1857.0</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -2489,7 +2588,7 @@
         <v>1858.0</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -2506,7 +2605,7 @@
         <v>1859.0</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -2523,7 +2622,7 @@
         <v>1860.0</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -2540,7 +2639,7 @@
         <v>1861.0</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -2557,7 +2656,7 @@
         <v>1862.0</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -2574,7 +2673,7 @@
         <v>1863.0</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -2591,7 +2690,7 @@
         <v>1864.0</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
@@ -2608,7 +2707,7 @@
         <v>1865.0</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
@@ -2625,7 +2724,7 @@
         <v>1866.0</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
@@ -2642,7 +2741,7 @@
         <v>1867.0</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -2659,7 +2758,7 @@
         <v>1868.0</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144">
@@ -2676,7 +2775,7 @@
         <v>1869.0</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
@@ -2693,7 +2792,7 @@
         <v>1870.0</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146">
@@ -3271,7 +3370,7 @@
         <v>1904.0</v>
       </c>
       <c r="E179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -3288,7 +3387,7 @@
         <v>1905.0</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -3339,7 +3438,7 @@
         <v>1908.0</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184">
@@ -3356,7 +3455,7 @@
         <v>1909.0</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185">
@@ -3373,7 +3472,7 @@
         <v>1910.0</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -3390,7 +3489,7 @@
         <v>1911.0</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
@@ -3407,7 +3506,7 @@
         <v>1912.0</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188">
@@ -3424,7 +3523,7 @@
         <v>1913.0</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189">
@@ -3441,7 +3540,7 @@
         <v>1914.0</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190">
@@ -3458,7 +3557,7 @@
         <v>1915.0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191">
@@ -3475,7 +3574,7 @@
         <v>1916.0</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192">
@@ -3492,7 +3591,7 @@
         <v>1917.0</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193">
@@ -3509,7 +3608,7 @@
         <v>1918.0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
@@ -3526,7 +3625,7 @@
         <v>1919.0</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -3543,7 +3642,7 @@
         <v>1920.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -3560,7 +3659,7 @@
         <v>1921.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
@@ -3577,7 +3676,7 @@
         <v>1922.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198">
@@ -3594,7 +3693,7 @@
         <v>1923.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199">
@@ -3611,7 +3710,7 @@
         <v>1924.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200">
@@ -3628,7 +3727,7 @@
         <v>1925.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201">
@@ -3645,7 +3744,7 @@
         <v>1926.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202">
@@ -3662,7 +3761,7 @@
         <v>1927.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203">
@@ -3679,7 +3778,7 @@
         <v>1928.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204">
@@ -3696,7 +3795,7 @@
         <v>1929.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205">
@@ -3713,7 +3812,7 @@
         <v>1930.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206">
@@ -3730,7 +3829,7 @@
         <v>1931.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207">
@@ -3747,7 +3846,7 @@
         <v>1932.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208">
@@ -3764,7 +3863,7 @@
         <v>1933.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
@@ -3781,7 +3880,7 @@
         <v>1934.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210">
@@ -3798,7 +3897,7 @@
         <v>1935.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211">
@@ -3815,7 +3914,7 @@
         <v>1936.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212">
@@ -3832,7 +3931,7 @@
         <v>1937.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213">
@@ -3849,7 +3948,7 @@
         <v>1938.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214">
@@ -3866,7 +3965,7 @@
         <v>1939.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215">
@@ -3883,7 +3982,7 @@
         <v>1940.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216">
@@ -3900,7 +3999,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217">
@@ -3917,7 +4016,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218">
@@ -3934,7 +4033,7 @@
         <v>1943.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219">
@@ -3951,7 +4050,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="220">
@@ -3968,7 +4067,7 @@
         <v>1945.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
@@ -3985,7 +4084,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="222">
@@ -4002,7 +4101,7 @@
         <v>1947.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223">
@@ -4019,7 +4118,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224">
@@ -4036,7 +4135,7 @@
         <v>1949.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225">
@@ -4053,7 +4152,7 @@
         <v>1950.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="226">
@@ -4070,7 +4169,7 @@
         <v>1951.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
@@ -4087,7 +4186,7 @@
         <v>1952.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="228">
@@ -4104,7 +4203,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229">
@@ -4121,7 +4220,7 @@
         <v>1954.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230">
@@ -4138,7 +4237,7 @@
         <v>1955.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231">
@@ -4155,7 +4254,7 @@
         <v>1956.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232">
@@ -4172,7 +4271,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233">
@@ -4189,7 +4288,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234">
@@ -4206,7 +4305,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235">
@@ -4223,7 +4322,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236">
@@ -4240,7 +4339,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237">
@@ -4257,7 +4356,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -4274,7 +4373,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239">
@@ -4291,7 +4390,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240">
@@ -4308,7 +4407,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241">
@@ -4325,7 +4424,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242">
@@ -4342,7 +4441,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243">
@@ -4359,7 +4458,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244">
@@ -4376,7 +4475,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245">
@@ -4393,7 +4492,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246">
@@ -4427,7 +4526,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248">
@@ -4444,7 +4543,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249">
@@ -4461,7 +4560,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250">
@@ -4478,7 +4577,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251">
@@ -4495,7 +4594,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252">
@@ -4512,7 +4611,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253">
@@ -4529,7 +4628,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254">
@@ -4546,7 +4645,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255">
@@ -4563,7 +4662,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256">
@@ -4580,7 +4679,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="257">
@@ -4597,7 +4696,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="258">
@@ -4614,7 +4713,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259">
@@ -4631,7 +4730,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="260">
@@ -4648,7 +4747,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261">
@@ -4665,7 +4764,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="262">
@@ -4682,7 +4781,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="263">
@@ -4699,7 +4798,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="264">
@@ -4716,7 +4815,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265">
@@ -4733,7 +4832,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266">
@@ -4750,7 +4849,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267">
@@ -4767,7 +4866,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268">
@@ -4784,7 +4883,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269">
@@ -4801,7 +4900,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="270">
@@ -4818,7 +4917,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271">
@@ -4835,7 +4934,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272">
@@ -4852,7 +4951,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="273">
@@ -4869,7 +4968,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="274">
@@ -4886,7 +4985,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275">
@@ -4903,7 +5002,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276">
@@ -4920,7 +5019,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277">
@@ -4937,7 +5036,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278">
@@ -4954,7 +5053,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -4971,7 +5070,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -4988,7 +5087,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -5005,7 +5104,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -5022,7 +5121,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -5039,7 +5138,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -5056,7 +5155,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -5073,7 +5172,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -5090,7 +5189,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
@@ -5107,7 +5206,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5125,50 +5224,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
